--- a/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Cashflow_Forecast.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Cashflow_Forecast.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Forecast" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Forecast" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,25 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +516,652 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Item 4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>25833</v>
+      </c>
+      <c r="C5" t="n">
+        <v>29092</v>
+      </c>
+      <c r="D5" t="n">
+        <v>37355</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20743</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Item 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>30359</v>
+      </c>
+      <c r="C6" t="n">
+        <v>44697</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1359</v>
+      </c>
+      <c r="E6" t="n">
+        <v>49052</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Item 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>24426</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17360</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25296</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40529</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>40145</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10059</v>
+      </c>
+      <c r="D8" t="n">
+        <v>31141</v>
+      </c>
+      <c r="E8" t="n">
+        <v>22212</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>45590</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36327</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19941</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33657</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>35336</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28642</v>
+      </c>
+      <c r="D10" t="n">
+        <v>39006</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32483</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11070</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26185</v>
+      </c>
+      <c r="D11" t="n">
+        <v>49098</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11380</v>
+      </c>
+      <c r="C12" t="n">
+        <v>36915</v>
+      </c>
+      <c r="D12" t="n">
+        <v>24446</v>
+      </c>
+      <c r="E12" t="n">
+        <v>25267</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>37292</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15756</v>
+      </c>
+      <c r="D13" t="n">
+        <v>27962</v>
+      </c>
+      <c r="E13" t="n">
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>37044</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14083</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9415</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4801</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>49859</v>
+      </c>
+      <c r="C15" t="n">
+        <v>42184</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14530</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13273</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15459</v>
+      </c>
+      <c r="C16" t="n">
+        <v>37915</v>
+      </c>
+      <c r="D16" t="n">
+        <v>49830</v>
+      </c>
+      <c r="E16" t="n">
+        <v>48951</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>27684</v>
+      </c>
+      <c r="C17" t="n">
+        <v>32431</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14691</v>
+      </c>
+      <c r="E17" t="n">
+        <v>45073</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>30996</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3965</v>
+      </c>
+      <c r="D18" t="n">
+        <v>45891</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4205</v>
+      </c>
+      <c r="C19" t="n">
+        <v>23659</v>
+      </c>
+      <c r="D19" t="n">
+        <v>21939</v>
+      </c>
+      <c r="E19" t="n">
+        <v>26111</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>34552</v>
+      </c>
+      <c r="C20" t="n">
+        <v>19362</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15591</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16839</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>34211</v>
+      </c>
+      <c r="C21" t="n">
+        <v>49819</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7076</v>
+      </c>
+      <c r="E21" t="n">
+        <v>26239</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3860</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12286</v>
+      </c>
+      <c r="D22" t="n">
+        <v>44935</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3944</v>
+      </c>
+      <c r="C23" t="n">
+        <v>42034</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13254</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14818</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>26350</v>
+      </c>
+      <c r="C24" t="n">
+        <v>47836</v>
+      </c>
+      <c r="D24" t="n">
+        <v>41313</v>
+      </c>
+      <c r="E24" t="n">
+        <v>48954</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>47550</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25691</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10477</v>
+      </c>
+      <c r="E25" t="n">
+        <v>27625</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>36570</v>
+      </c>
+      <c r="C26" t="n">
+        <v>49213</v>
+      </c>
+      <c r="D26" t="n">
+        <v>12800</v>
+      </c>
+      <c r="E26" t="n">
+        <v>40066</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>27829</v>
+      </c>
+      <c r="C27" t="n">
+        <v>18303</v>
+      </c>
+      <c r="D27" t="n">
+        <v>12577</v>
+      </c>
+      <c r="E27" t="n">
+        <v>12023</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>12537</v>
+      </c>
+      <c r="C28" t="n">
+        <v>12332</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6738</v>
+      </c>
+      <c r="E28" t="n">
+        <v>41325</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>9684</v>
+      </c>
+      <c r="C29" t="n">
+        <v>42991</v>
+      </c>
+      <c r="D29" t="n">
+        <v>49446</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>35054</v>
+      </c>
+      <c r="C30" t="n">
+        <v>15028</v>
+      </c>
+      <c r="D30" t="n">
+        <v>27445</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9145</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>46618</v>
+      </c>
+      <c r="C31" t="n">
+        <v>17209</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1869</v>
+      </c>
+      <c r="E31" t="n">
+        <v>26062</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>47325</v>
+      </c>
+      <c r="C32" t="n">
+        <v>23635</v>
+      </c>
+      <c r="D32" t="n">
+        <v>40645</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>38348</v>
+      </c>
+      <c r="C33" t="n">
+        <v>30960</v>
+      </c>
+      <c r="D33" t="n">
+        <v>14152</v>
+      </c>
+      <c r="E33" t="n">
+        <v>38401</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>34947</v>
+      </c>
+      <c r="C34" t="n">
+        <v>49602</v>
+      </c>
+      <c r="D34" t="n">
+        <v>41167</v>
+      </c>
+      <c r="E34" t="n">
+        <v>14598</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>49905</v>
+      </c>
+      <c r="C35" t="n">
+        <v>9920</v>
+      </c>
+      <c r="D35" t="n">
+        <v>34475</v>
+      </c>
+      <c r="E35" t="n">
+        <v>35021</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>42090</v>
+      </c>
+      <c r="C36" t="n">
+        <v>14864</v>
+      </c>
+      <c r="D36" t="n">
+        <v>42233</v>
+      </c>
+      <c r="E36" t="n">
+        <v>21762</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>38798</v>
+      </c>
+      <c r="C37" t="n">
+        <v>38367</v>
+      </c>
+      <c r="D37" t="n">
+        <v>15642</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9674</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>18398</v>
+      </c>
+      <c r="C38" t="n">
+        <v>13856</v>
+      </c>
+      <c r="D38" t="n">
+        <v>36863</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1563</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
